--- a/template/Raw_Mat_Template.xlsx
+++ b/template/Raw_Mat_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jihbi\xampp\htdocs\synctronix\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/speedjin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D40997A-11FB-4D19-AEEA-0CF0DC3129C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89648093-40CC-0849-907A-8820A7FF217D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B72B68DB-74CC-244F-A469-6576E8654289}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15840" xr2:uid="{B72B68DB-74CC-244F-A469-6576E8654289}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,771 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="255">
   <si>
     <t>Item</t>
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>501A-021</t>
+  </si>
+  <si>
+    <t>10MM</t>
+  </si>
+  <si>
+    <t>502A-P21</t>
+  </si>
+  <si>
+    <t>3002/002</t>
+  </si>
+  <si>
+    <t>10MM CHIPPING</t>
+  </si>
+  <si>
+    <t>502A-Q03</t>
+  </si>
+  <si>
+    <t>501A-031</t>
+  </si>
+  <si>
+    <t>14MM</t>
+  </si>
+  <si>
+    <t>502A-P31</t>
+  </si>
+  <si>
+    <t>501A-001</t>
+  </si>
+  <si>
+    <t>3002/003</t>
+  </si>
+  <si>
+    <t>14MM AGGREGATE</t>
+  </si>
+  <si>
+    <t>502A-Q04</t>
+  </si>
+  <si>
+    <t>501A-022</t>
+  </si>
+  <si>
+    <t>20MM</t>
+  </si>
+  <si>
+    <t>502A-P22</t>
+  </si>
+  <si>
+    <t>3002/004</t>
+  </si>
+  <si>
+    <t>20MM AGGREGATE</t>
+  </si>
+  <si>
+    <t>502A-Q05</t>
+  </si>
+  <si>
+    <t>3002/005</t>
+  </si>
+  <si>
+    <t>28MM AGGREGATE</t>
+  </si>
+  <si>
+    <t>502A-Q06</t>
+  </si>
+  <si>
+    <t>502A-Q12</t>
+  </si>
+  <si>
+    <t>3" X 5" BLOCK</t>
+  </si>
+  <si>
+    <t>501A-012</t>
+  </si>
+  <si>
+    <t>3/8 WC</t>
+  </si>
+  <si>
+    <t>502A-P12</t>
+  </si>
+  <si>
+    <t>3002/006</t>
+  </si>
+  <si>
+    <t>40MM AGGREGATE</t>
+  </si>
+  <si>
+    <t>502A-Q07</t>
+  </si>
+  <si>
+    <t>502A-Q08</t>
+  </si>
+  <si>
+    <t>6 X 9 BLOCK</t>
+  </si>
+  <si>
+    <t>501A-023</t>
+  </si>
+  <si>
+    <t>6MM</t>
+  </si>
+  <si>
+    <t>502A-P23</t>
+  </si>
+  <si>
+    <t>501A-048</t>
+  </si>
+  <si>
+    <t>AC 14 (LATEX)</t>
+  </si>
+  <si>
+    <t>502A-P44</t>
+  </si>
+  <si>
+    <t>502A-P50</t>
+  </si>
+  <si>
+    <t>AC 14RPF</t>
+  </si>
+  <si>
+    <t>501A-003</t>
+  </si>
+  <si>
+    <t>AC10</t>
+  </si>
+  <si>
+    <t>502A-P03</t>
+  </si>
+  <si>
+    <t>AC14</t>
+  </si>
+  <si>
+    <t>502A-P01</t>
+  </si>
+  <si>
+    <t>501A-037</t>
+  </si>
+  <si>
+    <t>AC14 (MR6)</t>
+  </si>
+  <si>
+    <t>502A-Q10</t>
+  </si>
+  <si>
+    <t>AC14 M</t>
+  </si>
+  <si>
+    <t>501A-054</t>
+  </si>
+  <si>
+    <t>AC14 RPF</t>
+  </si>
+  <si>
+    <t>501A-002</t>
+  </si>
+  <si>
+    <t>AC28</t>
+  </si>
+  <si>
+    <t>502A-P02</t>
+  </si>
+  <si>
+    <t>501A-056</t>
+  </si>
+  <si>
+    <t>AC28 PLUS</t>
+  </si>
+  <si>
+    <t>502A-P52</t>
+  </si>
+  <si>
+    <t>501A-047</t>
+  </si>
+  <si>
+    <t>ACB 14</t>
+  </si>
+  <si>
+    <t>502A-P43</t>
+  </si>
+  <si>
+    <t>501A-007</t>
+  </si>
+  <si>
+    <t>ACB20</t>
+  </si>
+  <si>
+    <t>502A-P07</t>
+  </si>
+  <si>
+    <t>501A-006</t>
+  </si>
+  <si>
+    <t>ACB28</t>
+  </si>
+  <si>
+    <t>502A-P06</t>
+  </si>
+  <si>
+    <t>501A-016</t>
+  </si>
+  <si>
+    <t>ACBC28</t>
+  </si>
+  <si>
+    <t>502A-P16</t>
+  </si>
+  <si>
+    <t>501A-026</t>
+  </si>
+  <si>
+    <t>ACW10</t>
+  </si>
+  <si>
+    <t>502A-P26</t>
+  </si>
+  <si>
+    <t>501A-004</t>
+  </si>
+  <si>
+    <t>ACW14</t>
+  </si>
+  <si>
+    <t>502A-P04</t>
+  </si>
+  <si>
+    <t>501A-005</t>
+  </si>
+  <si>
+    <t>ACW20</t>
+  </si>
+  <si>
+    <t>502A-P05</t>
+  </si>
+  <si>
+    <t>501A-032</t>
+  </si>
+  <si>
+    <t>ACW20 MR</t>
+  </si>
+  <si>
+    <t>502A-P32</t>
+  </si>
+  <si>
+    <t>501A-051</t>
+  </si>
+  <si>
+    <t>ACW20 PLUS</t>
+  </si>
+  <si>
+    <t>502A-P47</t>
+  </si>
+  <si>
+    <t>501A-042</t>
+  </si>
+  <si>
+    <t>ACWC 14 (MR6)</t>
+  </si>
+  <si>
+    <t>501A-050</t>
+  </si>
+  <si>
+    <t>ACWC 20 (FORTA FABER)</t>
+  </si>
+  <si>
+    <t>502A-P46</t>
+  </si>
+  <si>
+    <t>501A-029</t>
+  </si>
+  <si>
+    <t>ACWC10</t>
+  </si>
+  <si>
+    <t>502A-P28</t>
+  </si>
+  <si>
+    <t>501A-027</t>
+  </si>
+  <si>
+    <t>ACWC14</t>
+  </si>
+  <si>
+    <t>502A-P27</t>
+  </si>
+  <si>
+    <t>501A-015</t>
+  </si>
+  <si>
+    <t>ACWC20</t>
+  </si>
+  <si>
+    <t>502A-P15</t>
+  </si>
+  <si>
+    <t>501A-058</t>
+  </si>
+  <si>
+    <t>ACWC20 PLUS</t>
+  </si>
+  <si>
+    <t>502A-P54</t>
+  </si>
+  <si>
+    <t>3001/001</t>
+  </si>
+  <si>
+    <t>BITUMEN 60/70</t>
+  </si>
+  <si>
+    <t>502A-Q11</t>
+  </si>
+  <si>
+    <t>3001/004</t>
+  </si>
+  <si>
+    <t>BITUMEN CMB</t>
+  </si>
+  <si>
+    <t>3001/003</t>
+  </si>
+  <si>
+    <t>BITUMEN CRMB</t>
+  </si>
+  <si>
+    <t>3001/002</t>
+  </si>
+  <si>
+    <t>BITUMEN PG76</t>
+  </si>
+  <si>
+    <t>3001/009</t>
+  </si>
+  <si>
+    <t>BITUMEN PG76 (L)</t>
+  </si>
+  <si>
+    <t>501A-028</t>
+  </si>
+  <si>
+    <t>BMB20</t>
+  </si>
+  <si>
+    <t>502A-P29</t>
+  </si>
+  <si>
+    <t>501A-014</t>
+  </si>
+  <si>
+    <t>BMR28</t>
+  </si>
+  <si>
+    <t>502A-P14</t>
+  </si>
+  <si>
+    <t>501A-008</t>
+  </si>
+  <si>
+    <t>BMR40</t>
+  </si>
+  <si>
+    <t>502A-P08</t>
+  </si>
+  <si>
+    <t>501A-034</t>
+  </si>
+  <si>
+    <t>BMW14</t>
+  </si>
+  <si>
+    <t>502A-P34</t>
+  </si>
+  <si>
+    <t>501A-035</t>
+  </si>
+  <si>
+    <t>BMW20</t>
+  </si>
+  <si>
+    <t>502A-P35</t>
+  </si>
+  <si>
+    <t>3001/005</t>
+  </si>
+  <si>
+    <t>CEMENT</t>
+  </si>
+  <si>
+    <t>502A-Q09</t>
+  </si>
+  <si>
+    <t>501A-041</t>
+  </si>
+  <si>
+    <t>CHIPPING MIX DUST</t>
+  </si>
+  <si>
+    <t>502A-C03</t>
+  </si>
+  <si>
+    <t>501A-049</t>
+  </si>
+  <si>
+    <t>CMA 14</t>
+  </si>
+  <si>
+    <t>502A-P45</t>
+  </si>
+  <si>
+    <t>502A-C01</t>
+  </si>
+  <si>
+    <t>COLD MIX</t>
+  </si>
+  <si>
+    <t>501A-010</t>
+  </si>
+  <si>
+    <t>CRGGA</t>
+  </si>
+  <si>
+    <t>502A-P10</t>
+  </si>
+  <si>
+    <t>501A-039</t>
+  </si>
+  <si>
+    <t>CRMA</t>
+  </si>
+  <si>
+    <t>502A-P37</t>
+  </si>
+  <si>
+    <t>502A-Q01</t>
+  </si>
+  <si>
+    <t>CRUSHER RUN</t>
+  </si>
+  <si>
+    <t>501A-033</t>
+  </si>
+  <si>
+    <t>DBM40</t>
+  </si>
+  <si>
+    <t>502A-P33</t>
+  </si>
+  <si>
+    <t>501A-017</t>
+  </si>
+  <si>
+    <t>DBM40BC</t>
+  </si>
+  <si>
+    <t>502A-P17</t>
+  </si>
+  <si>
+    <t>501A-024</t>
+  </si>
+  <si>
+    <t>DUST MIX</t>
+  </si>
+  <si>
+    <t>502A-P24</t>
+  </si>
+  <si>
+    <t>3001/008</t>
+  </si>
+  <si>
+    <t>EVOTHERM</t>
+  </si>
+  <si>
+    <t>3001-C07</t>
+  </si>
+  <si>
+    <t>FIBER - FORTA FI</t>
+  </si>
+  <si>
+    <t>RM-FB-002</t>
+  </si>
+  <si>
+    <t>FIBER - KTL</t>
+  </si>
+  <si>
+    <t>RM-FB-003</t>
+  </si>
+  <si>
+    <t>FIBER - MACRUBER MR6</t>
+  </si>
+  <si>
+    <t>RM-FB-001</t>
+  </si>
+  <si>
+    <t>FIBER MASTIC ASPHALT (FMA) NOVACELL PURE</t>
+  </si>
+  <si>
+    <t>RM-FB-004fiber</t>
+  </si>
+  <si>
+    <t>FIBRE - Reinforced Polyester Fiber (RPF) 004</t>
+  </si>
+  <si>
+    <t>501A-043</t>
+  </si>
+  <si>
+    <t>FMA 14</t>
+  </si>
+  <si>
+    <t>502A-P39</t>
+  </si>
+  <si>
+    <t>501A-046</t>
+  </si>
+  <si>
+    <t>FMA20</t>
+  </si>
+  <si>
+    <t>502A-P42</t>
+  </si>
+  <si>
+    <t>3003/001</t>
+  </si>
+  <si>
+    <t>INDUSTRIAL DIESEL</t>
+  </si>
+  <si>
+    <t>502A-E01</t>
+  </si>
+  <si>
+    <t>K1-40</t>
+  </si>
+  <si>
+    <t>530-L01</t>
+  </si>
+  <si>
+    <t>LATE PAYMENT CHARGE INCOME</t>
+  </si>
+  <si>
+    <t>3001/007</t>
+  </si>
+  <si>
+    <t>LATEX</t>
+  </si>
+  <si>
+    <t>3003/002</t>
+  </si>
+  <si>
+    <t>LIGHT FUEL OIL</t>
+  </si>
+  <si>
+    <t>3001/006</t>
+  </si>
+  <si>
+    <t>LIME</t>
+  </si>
+  <si>
+    <t>501A-018</t>
+  </si>
+  <si>
+    <t>MILLING WASTE</t>
+  </si>
+  <si>
+    <t>502A-P18</t>
+  </si>
+  <si>
+    <t>530-M01</t>
+  </si>
+  <si>
+    <t>MISC INCOME</t>
+  </si>
+  <si>
+    <t>OPC</t>
+  </si>
+  <si>
+    <t>501A-040</t>
+  </si>
+  <si>
+    <t>PG76 (PMA)</t>
+  </si>
+  <si>
+    <t>502A-P38</t>
+  </si>
+  <si>
+    <t>501A-044</t>
+  </si>
+  <si>
+    <t>PMA 14</t>
+  </si>
+  <si>
+    <t>502A-P40</t>
+  </si>
+  <si>
+    <t>501A-045</t>
+  </si>
+  <si>
+    <t>PMA 28</t>
+  </si>
+  <si>
+    <t>502A-P41</t>
+  </si>
+  <si>
+    <t>501A-055</t>
+  </si>
+  <si>
+    <t>POROUS ASPHALT</t>
+  </si>
+  <si>
+    <t>502A-P51</t>
+  </si>
+  <si>
+    <t>501A-038</t>
+  </si>
+  <si>
+    <t>PREMIX 3/4</t>
+  </si>
+  <si>
+    <t>502A-P36</t>
+  </si>
+  <si>
+    <t>501A-030</t>
+  </si>
+  <si>
+    <t>PREMIX 3/8</t>
+  </si>
+  <si>
+    <t>502A-P30</t>
+  </si>
+  <si>
+    <t>501A-011</t>
+  </si>
+  <si>
+    <t>PREMIX WASTE</t>
+  </si>
+  <si>
+    <t>502A-P11</t>
+  </si>
+  <si>
+    <t>3002/001</t>
+  </si>
+  <si>
+    <t>QUARRY DUST</t>
+  </si>
+  <si>
+    <t>502A-Q02</t>
+  </si>
+  <si>
+    <t>501A-013</t>
+  </si>
+  <si>
+    <t>QUARRY WASTE</t>
+  </si>
+  <si>
+    <t>502A-P13</t>
+  </si>
+  <si>
+    <t>530-R01</t>
+  </si>
+  <si>
+    <t>RENTAL OF MACHINERY</t>
+  </si>
+  <si>
+    <t>502A-E02</t>
+  </si>
+  <si>
+    <t>RS-1K</t>
+  </si>
+  <si>
+    <t>RW PLAST</t>
+  </si>
+  <si>
+    <t>501A-057</t>
+  </si>
+  <si>
+    <t>SFM 20</t>
+  </si>
+  <si>
+    <t>502A-P53</t>
+  </si>
+  <si>
+    <t>501A-009</t>
+  </si>
+  <si>
+    <t>SFM14</t>
+  </si>
+  <si>
+    <t>502A-P09</t>
+  </si>
+  <si>
+    <t>501A-053</t>
+  </si>
+  <si>
+    <t>SLUDGE</t>
+  </si>
+  <si>
+    <t>502A-P49</t>
+  </si>
+  <si>
+    <t>501A-059</t>
+  </si>
+  <si>
+    <t>SMA PLUS</t>
+  </si>
+  <si>
+    <t>502A-P55</t>
+  </si>
+  <si>
+    <t>501A-025</t>
+  </si>
+  <si>
+    <t>SMA14</t>
+  </si>
+  <si>
+    <t>502A-P25</t>
+  </si>
+  <si>
+    <t>501A-020</t>
+  </si>
+  <si>
+    <t>SMA20</t>
+  </si>
+  <si>
+    <t>502A-P20</t>
+  </si>
+  <si>
+    <t>501A-052</t>
+  </si>
+  <si>
+    <t>SMA20 PLUS</t>
+  </si>
+  <si>
+    <t>502A-P48</t>
+  </si>
+  <si>
+    <t>502A-E03</t>
+  </si>
+  <si>
+    <t>SS-1K</t>
+  </si>
+  <si>
+    <t>501A-019</t>
+  </si>
+  <si>
+    <t>TRANSPORT CHARGES</t>
+  </si>
+  <si>
+    <t>502A-P19</t>
+  </si>
+  <si>
+    <t>503A-036</t>
+  </si>
+  <si>
+    <t>WAITING HOUR</t>
+  </si>
+  <si>
+    <t>501A-036</t>
+  </si>
+  <si>
+    <t>WAITING HOURS</t>
   </si>
 </sst>
 </file>
@@ -57,22 +816,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAEBEE"/>
+        <bgColor rgb="FFEAEBEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F8FF"/>
+        <bgColor rgb="FFF2F8FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5FCF4"/>
+        <bgColor rgb="FFF5FCF4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -95,14 +871,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA0A0A0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA0A0A0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,20 +1231,1292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0721F7-DB09-E14D-9967-130E94EA4F9C}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="39" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="52" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="52" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="39" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
